--- a/PCAcombined_predicted_factors_matrix_10.xlsx
+++ b/PCAcombined_predicted_factors_matrix_10.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -440,31 +440,13 @@
       <c r="B1" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="n">
-        <v>4</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
         <v>0.1321849163323346</v>
       </c>
       <c r="B2" t="n">
-        <v>0.2027588370709348</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.123443710001759</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.05721559677157786</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.009614008363069554</v>
+        <v>0.2027848664202113</v>
       </c>
     </row>
     <row r="3">
@@ -472,16 +454,7 @@
         <v>0.2491991661712655</v>
       </c>
       <c r="B3" t="n">
-        <v>0.1724190039994039</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.1027944390189974</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.06160873912032113</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.04407524810461526</v>
+        <v>0.1724411384451406</v>
       </c>
     </row>
     <row r="4">
@@ -489,16 +462,7 @@
         <v>0.977151395024658</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.6742682762825989</v>
-      </c>
-      <c r="C4" t="n">
-        <v>-0.3423737996741228</v>
-      </c>
-      <c r="D4" t="n">
-        <v>-0.2000048012873049</v>
-      </c>
-      <c r="E4" t="n">
-        <v>-0.1258392457337382</v>
+        <v>-0.6743548360830079</v>
       </c>
     </row>
     <row r="5">
@@ -506,16 +470,7 @@
         <v>0.5172165385330864</v>
       </c>
       <c r="B5" t="n">
-        <v>0.3121925462620068</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.1686536152481463</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.08583553160390504</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.04075965296671515</v>
+        <v>0.3122326242627769</v>
       </c>
     </row>
     <row r="6">
@@ -523,16 +478,7 @@
         <v>-0.5865045841730135</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.2698073218999459</v>
-      </c>
-      <c r="C6" t="n">
-        <v>-0.03339032416121902</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.009953462608685626</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.01806342261183984</v>
+        <v>-0.2698419586591628</v>
       </c>
     </row>
     <row r="7">
@@ -540,16 +486,7 @@
         <v>0.1420548882957302</v>
       </c>
       <c r="B7" t="n">
-        <v>0.1153313403414525</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.03774514565473479</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.007610161520114371</v>
-      </c>
-      <c r="E7" t="n">
-        <v>-0.003788177753993734</v>
+        <v>0.1153461461066831</v>
       </c>
     </row>
     <row r="8">
@@ -557,16 +494,7 @@
         <v>0.01645775632661547</v>
       </c>
       <c r="B8" t="n">
-        <v>0.01276403428592806</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.06652909409328379</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0.04107371382211161</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0.01955116310837636</v>
+        <v>0.01276567288038519</v>
       </c>
     </row>
     <row r="9">
@@ -574,16 +502,7 @@
         <v>0.2430084726874119</v>
       </c>
       <c r="B9" t="n">
-        <v>0.1178431363494902</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.03075833393271684</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0.004062916759965143</v>
-      </c>
-      <c r="E9" t="n">
-        <v>-0.006709771309508726</v>
+        <v>0.1178582645688076</v>
       </c>
     </row>
     <row r="10">
@@ -591,16 +510,7 @@
         <v>-0.02063914468007719</v>
       </c>
       <c r="B10" t="n">
-        <v>-0.005733852211510635</v>
-      </c>
-      <c r="C10" t="n">
-        <v>-0.003624164128976591</v>
-      </c>
-      <c r="D10" t="n">
-        <v>-0.007797663775166226</v>
-      </c>
-      <c r="E10" t="n">
-        <v>-0.006608080888091944</v>
+        <v>-0.005734588299979596</v>
       </c>
     </row>
     <row r="11">
@@ -608,16 +518,7 @@
         <v>-0.1152244858542527</v>
       </c>
       <c r="B11" t="n">
-        <v>-0.02648602223019105</v>
-      </c>
-      <c r="C11" t="n">
-        <v>-0.01844045203851006</v>
-      </c>
-      <c r="D11" t="n">
-        <v>-0.007076208906844147</v>
-      </c>
-      <c r="E11" t="n">
-        <v>-0.002667546678723493</v>
+        <v>-0.02648942239727368</v>
       </c>
     </row>
   </sheetData>

--- a/PCAcombined_predicted_factors_matrix_10.xlsx
+++ b/PCAcombined_predicted_factors_matrix_10.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -440,6 +440,12 @@
       <c r="B1" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="C1" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -448,6 +454,12 @@
       <c r="B2" t="n">
         <v>0.2027848664202113</v>
       </c>
+      <c r="C2" t="n">
+        <v>0.2073881782232128</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.190375263669274</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -456,6 +468,12 @@
       <c r="B3" t="n">
         <v>0.1724411384451406</v>
       </c>
+      <c r="C3" t="n">
+        <v>0.1200786582303187</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.08311239127848744</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -464,6 +482,12 @@
       <c r="B4" t="n">
         <v>-0.6743548360830079</v>
       </c>
+      <c r="C4" t="n">
+        <v>-0.4673526699589605</v>
+      </c>
+      <c r="D4" t="n">
+        <v>-0.3200719546600977</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -472,6 +496,12 @@
       <c r="B5" t="n">
         <v>0.3122326242627769</v>
       </c>
+      <c r="C5" t="n">
+        <v>0.2059499236072211</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.1397563701702305</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -480,6 +510,12 @@
       <c r="B6" t="n">
         <v>-0.2698419586591628</v>
       </c>
+      <c r="C6" t="n">
+        <v>-0.1508630949735744</v>
+      </c>
+      <c r="D6" t="n">
+        <v>-0.09313594532867908</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -488,6 +524,12 @@
       <c r="B7" t="n">
         <v>0.1153461461066831</v>
       </c>
+      <c r="C7" t="n">
+        <v>0.08529872157759155</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.0594592677535084</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -496,6 +538,12 @@
       <c r="B8" t="n">
         <v>0.01276567288038519</v>
       </c>
+      <c r="C8" t="n">
+        <v>0.01166930571949581</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.007731391047517077</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -504,6 +552,12 @@
       <c r="B9" t="n">
         <v>0.1178582645688076</v>
       </c>
+      <c r="C9" t="n">
+        <v>0.06583112970842031</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.03872334294077955</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -512,6 +566,12 @@
       <c r="B10" t="n">
         <v>-0.005734588299979596</v>
       </c>
+      <c r="C10" t="n">
+        <v>0.003746541026071212</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.005713639856872968</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -519,6 +579,12 @@
       </c>
       <c r="B11" t="n">
         <v>-0.02648942239727368</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-0.006827336899072929</v>
+      </c>
+      <c r="D11" t="n">
+        <v>-0.001785870361561763</v>
       </c>
     </row>
   </sheetData>

--- a/PCAcombined_predicted_factors_matrix_10.xlsx
+++ b/PCAcombined_predicted_factors_matrix_10.xlsx
@@ -1,37 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Thesis\04. Models\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BA1E5F0-BC9B-47DB-8E5B-1090977668D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-49890" yWindow="-3675" windowWidth="29385" windowHeight="15225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +52,43 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -420,171 +376,1587 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AV11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
+      <selection activeCell="AV1" sqref="AV1:AV1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="n">
+    <row r="1" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="A1" s="1">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="n">
+      <c r="B1" s="1">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="n">
+      <c r="C1" s="1">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="n">
+      <c r="D1" s="1">
         <v>3</v>
       </c>
+      <c r="E1" s="1">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1">
+        <v>21</v>
+      </c>
+      <c r="W1" s="1">
+        <v>22</v>
+      </c>
+      <c r="X1" s="1">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="1">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="1">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="1">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="1">
+        <v>27</v>
+      </c>
+      <c r="AC1" s="1">
+        <v>28</v>
+      </c>
+      <c r="AD1" s="1">
+        <v>29</v>
+      </c>
+      <c r="AE1" s="1">
+        <v>30</v>
+      </c>
+      <c r="AF1" s="1">
+        <v>31</v>
+      </c>
+      <c r="AG1" s="1">
+        <v>32</v>
+      </c>
+      <c r="AH1" s="1">
+        <v>33</v>
+      </c>
+      <c r="AI1" s="1">
+        <v>34</v>
+      </c>
+      <c r="AJ1" s="1">
+        <v>35</v>
+      </c>
+      <c r="AK1" s="1">
+        <v>36</v>
+      </c>
+      <c r="AL1" s="1">
+        <v>37</v>
+      </c>
+      <c r="AM1" s="1">
+        <v>38</v>
+      </c>
+      <c r="AN1" s="1">
+        <v>39</v>
+      </c>
+      <c r="AO1" s="1">
+        <v>40</v>
+      </c>
+      <c r="AP1" s="1">
+        <v>41</v>
+      </c>
+      <c r="AQ1" s="1">
+        <v>42</v>
+      </c>
+      <c r="AR1" s="1">
+        <v>43</v>
+      </c>
+      <c r="AS1" s="1">
+        <v>44</v>
+      </c>
+      <c r="AT1" s="1">
+        <v>45</v>
+      </c>
+      <c r="AU1" s="1">
+        <v>46</v>
+      </c>
+      <c r="AV1" s="1"/>
     </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>0.1321849163323346</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0.2027848664202113</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.2073881782232128</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.190375263669274</v>
+    <row r="2" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>0.13218491633233459</v>
+      </c>
+      <c r="B2">
+        <v>0.20278486642021129</v>
+      </c>
+      <c r="C2">
+        <v>0.2084795542183128</v>
+      </c>
+      <c r="D2">
+        <v>0.19393756203276399</v>
+      </c>
+      <c r="E2">
+        <v>0.17153412796259829</v>
+      </c>
+      <c r="F2">
+        <v>0.1457595503430866</v>
+      </c>
+      <c r="G2">
+        <v>0.1184938692095354</v>
+      </c>
+      <c r="H2">
+        <v>9.0658353010987014E-2</v>
+      </c>
+      <c r="I2">
+        <v>6.2762326614858033E-2</v>
+      </c>
+      <c r="J2">
+        <v>3.5106749170169142E-2</v>
+      </c>
+      <c r="K2">
+        <v>7.8733103824437552E-3</v>
+      </c>
+      <c r="L2">
+        <v>-1.8829641646357139E-2</v>
+      </c>
+      <c r="M2">
+        <v>-4.4940335547735133E-2</v>
+      </c>
+      <c r="N2">
+        <v>-7.0426828639530148E-2</v>
+      </c>
+      <c r="O2">
+        <v>-9.5276174725917248E-2</v>
+      </c>
+      <c r="P2">
+        <v>-0.11948734232490479</v>
+      </c>
+      <c r="Q2">
+        <v>-0.14306659079251161</v>
+      </c>
+      <c r="R2">
+        <v>-0.16602447584690211</v>
+      </c>
+      <c r="S2">
+        <v>-0.18837393537844199</v>
+      </c>
+      <c r="T2">
+        <v>-0.21012908728446819</v>
+      </c>
+      <c r="U2">
+        <v>-0.23130449216929869</v>
+      </c>
+      <c r="V2">
+        <v>-0.25191471581246122</v>
+      </c>
+      <c r="W2">
+        <v>-0.27197408196970668</v>
+      </c>
+      <c r="X2">
+        <v>-0.29149654366707461</v>
+      </c>
+      <c r="Y2">
+        <v>-0.31049562637126771</v>
+      </c>
+      <c r="Z2">
+        <v>-0.32898441320404248</v>
+      </c>
+      <c r="AA2">
+        <v>-0.34697555343361508</v>
+      </c>
+      <c r="AB2">
+        <v>-0.36448128269345648</v>
+      </c>
+      <c r="AC2">
+        <v>-0.38151344802816739</v>
+      </c>
+      <c r="AD2">
+        <v>-0.39808353381633249</v>
+      </c>
+      <c r="AE2">
+        <v>-0.41420268645728747</v>
+      </c>
+      <c r="AF2">
+        <v>-0.42988173682447689</v>
+      </c>
+      <c r="AG2">
+        <v>-0.44513122014287682</v>
+      </c>
+      <c r="AH2">
+        <v>-0.45996139331263491</v>
+      </c>
+      <c r="AI2">
+        <v>-0.47438224988731942</v>
+      </c>
+      <c r="AJ2">
+        <v>-0.48840353299456629</v>
+      </c>
+      <c r="AK2">
+        <v>-0.50203474650488289</v>
+      </c>
+      <c r="AL2">
+        <v>-0.51528516473935448</v>
+      </c>
+      <c r="AM2">
+        <v>-0.52816384097622426</v>
+      </c>
+      <c r="AN2">
+        <v>-0.5406796149796953</v>
+      </c>
+      <c r="AO2">
+        <v>-0.5528411197378843</v>
+      </c>
+      <c r="AP2">
+        <v>-0.56465678756319049</v>
+      </c>
+      <c r="AQ2">
+        <v>-0.57613485567886802</v>
+      </c>
+      <c r="AR2">
+        <v>-0.58728337139071796</v>
+      </c>
+      <c r="AS2">
+        <v>-0.59811019692209544</v>
+      </c>
+      <c r="AT2">
+        <v>-0.6086230139737091</v>
+      </c>
+      <c r="AU2">
+        <v>-0.61882932805616531</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="n">
+    <row r="3" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="A3">
         <v>0.2491991661712655</v>
       </c>
-      <c r="B3" t="n">
-        <v>0.1724411384451406</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.1200786582303187</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.08311239127848744</v>
+      <c r="B3">
+        <v>0.17244113844514061</v>
+      </c>
+      <c r="C3">
+        <v>0.11992398829643799</v>
+      </c>
+      <c r="D3">
+        <v>8.26121165553661E-2</v>
+      </c>
+      <c r="E3">
+        <v>5.7494804679159517E-2</v>
+      </c>
+      <c r="F3">
+        <v>4.1203476596220187E-2</v>
+      </c>
+      <c r="G3">
+        <v>3.1076844474761441E-2</v>
+      </c>
+      <c r="H3">
+        <v>2.5203304817670819E-2</v>
+      </c>
+      <c r="I3">
+        <v>2.2251116442833549E-2</v>
+      </c>
+      <c r="J3">
+        <v>2.130054821895204E-2</v>
+      </c>
+      <c r="K3">
+        <v>2.1716905816889929E-2</v>
+      </c>
+      <c r="L3">
+        <v>2.306132438921547E-2</v>
+      </c>
+      <c r="M3">
+        <v>2.5029519659549519E-2</v>
+      </c>
+      <c r="N3">
+        <v>2.7409962194183832E-2</v>
+      </c>
+      <c r="O3">
+        <v>3.00552836151321E-2</v>
+      </c>
+      <c r="P3">
+        <v>3.2862661288054207E-2</v>
+      </c>
+      <c r="Q3">
+        <v>3.5760307010610989E-2</v>
+      </c>
+      <c r="R3">
+        <v>3.8698122157766392E-2</v>
+      </c>
+      <c r="S3">
+        <v>4.1641209698258352E-2</v>
+      </c>
+      <c r="T3">
+        <v>4.4565353845932527E-2</v>
+      </c>
+      <c r="U3">
+        <v>4.7453860497930142E-2</v>
+      </c>
+      <c r="V3">
+        <v>5.0295342317040609E-2</v>
+      </c>
+      <c r="W3">
+        <v>5.3082161820222649E-2</v>
+      </c>
+      <c r="X3">
+        <v>5.5809334243804673E-2</v>
+      </c>
+      <c r="Y3">
+        <v>5.847375259901872E-2</v>
+      </c>
+      <c r="Z3">
+        <v>6.1073639108120761E-2</v>
+      </c>
+      <c r="AA3">
+        <v>6.3608156101545479E-2</v>
+      </c>
+      <c r="AB3">
+        <v>6.6077129504576462E-2</v>
+      </c>
+      <c r="AC3">
+        <v>6.8480851997982345E-2</v>
+      </c>
+      <c r="AD3">
+        <v>7.0819942680509507E-2</v>
+      </c>
+      <c r="AE3">
+        <v>7.3095246882006415E-2</v>
+      </c>
+      <c r="AF3">
+        <v>7.5307764563174839E-2</v>
+      </c>
+      <c r="AG3">
+        <v>7.7458599105939815E-2</v>
+      </c>
+      <c r="AH3">
+        <v>7.9548920673567725E-2</v>
+      </c>
+      <c r="AI3">
+        <v>8.1579939998272857E-2</v>
+      </c>
+      <c r="AJ3">
+        <v>8.3552889643006029E-2</v>
+      </c>
+      <c r="AK3">
+        <v>8.5469010628002398E-2</v>
+      </c>
+      <c r="AL3">
+        <v>8.7329542912780569E-2</v>
+      </c>
+      <c r="AM3">
+        <v>8.9135718651917287E-2</v>
+      </c>
+      <c r="AN3">
+        <v>9.0888757448197202E-2</v>
+      </c>
+      <c r="AO3">
+        <v>9.2589863045022716E-2</v>
+      </c>
+      <c r="AP3">
+        <v>9.4240221056373044E-2</v>
+      </c>
+      <c r="AQ3">
+        <v>9.5840997444786399E-2</v>
+      </c>
+      <c r="AR3">
+        <v>9.739333753849215E-2</v>
+      </c>
+      <c r="AS3">
+        <v>9.8898365436818916E-2</v>
+      </c>
+      <c r="AT3">
+        <v>0.1003571836948521</v>
+      </c>
+      <c r="AU3">
+        <v>0.101770873208455</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>0.977151395024658</v>
-      </c>
-      <c r="B4" t="n">
-        <v>-0.6743548360830079</v>
-      </c>
-      <c r="C4" t="n">
-        <v>-0.4673526699589605</v>
-      </c>
-      <c r="D4" t="n">
-        <v>-0.3200719546600977</v>
+    <row r="4" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>0.97715139502465798</v>
+      </c>
+      <c r="B4">
+        <v>-0.67435483608300795</v>
+      </c>
+      <c r="C4">
+        <v>-0.46714771495609209</v>
+      </c>
+      <c r="D4">
+        <v>-0.31948842948419592</v>
+      </c>
+      <c r="E4">
+        <v>-0.2170132521748957</v>
+      </c>
+      <c r="F4">
+        <v>-0.14659269835979011</v>
+      </c>
+      <c r="G4">
+        <v>-9.839544594532712E-2</v>
+      </c>
+      <c r="H4">
+        <v>-6.5477165797904413E-2</v>
+      </c>
+      <c r="I4">
+        <v>-4.3030631309607527E-2</v>
+      </c>
+      <c r="J4">
+        <v>-2.775222688724133E-2</v>
+      </c>
+      <c r="K4">
+        <v>-1.7377749096215318E-2</v>
+      </c>
+      <c r="L4">
+        <v>-1.0356957456465881E-2</v>
+      </c>
+      <c r="M4">
+        <v>-5.6288796500264231E-3</v>
+      </c>
+      <c r="N4">
+        <v>-2.4675343617249182E-3</v>
+      </c>
+      <c r="O4">
+        <v>-3.7621898731749772E-4</v>
+      </c>
+      <c r="P4">
+        <v>9.8486870544825219E-4</v>
+      </c>
+      <c r="Q4">
+        <v>1.8481697630945129E-3</v>
+      </c>
+      <c r="R4">
+        <v>2.37266577150194E-3</v>
+      </c>
+      <c r="S4">
+        <v>2.667077337524987E-3</v>
+      </c>
+      <c r="T4">
+        <v>2.8057377828558001E-3</v>
+      </c>
+      <c r="U4">
+        <v>2.8394545395513679E-3</v>
+      </c>
+      <c r="V4">
+        <v>2.802940822757317E-3</v>
+      </c>
+      <c r="W4">
+        <v>2.7199005217970638E-3</v>
+      </c>
+      <c r="X4">
+        <v>2.6065073159812352E-3</v>
+      </c>
+      <c r="Y4">
+        <v>2.4737850411393962E-3</v>
+      </c>
+      <c r="Z4">
+        <v>2.3292362351705338E-3</v>
+      </c>
+      <c r="AA4">
+        <v>2.1779562492883109E-3</v>
+      </c>
+      <c r="AB4">
+        <v>2.023395361111431E-3</v>
+      </c>
+      <c r="AC4">
+        <v>1.8678800417697801E-3</v>
+      </c>
+      <c r="AD4">
+        <v>1.7129694376903869E-3</v>
+      </c>
+      <c r="AE4">
+        <v>1.559699114890173E-3</v>
+      </c>
+      <c r="AF4">
+        <v>1.4087476814424189E-3</v>
+      </c>
+      <c r="AG4">
+        <v>1.2605506585637021E-3</v>
+      </c>
+      <c r="AH4">
+        <v>1.1153782753400481E-3</v>
+      </c>
+      <c r="AI4">
+        <v>9.7338859562572187E-4</v>
+      </c>
+      <c r="AJ4">
+        <v>8.346637817745273E-4</v>
+      </c>
+      <c r="AK4">
+        <v>6.9923483358696678E-4</v>
+      </c>
+      <c r="AL4">
+        <v>5.6709845343743564E-4</v>
+      </c>
+      <c r="AM4">
+        <v>4.3822853383917158E-4</v>
+      </c>
+      <c r="AN4">
+        <v>3.1258397395831738E-4</v>
+      </c>
+      <c r="AO4">
+        <v>1.901139912159509E-4</v>
+      </c>
+      <c r="AP4">
+        <v>7.0761724684902279E-5</v>
+      </c>
+      <c r="AQ4">
+        <v>-4.5533325650251278E-5</v>
+      </c>
+      <c r="AR4">
+        <v>-1.5883365239409571E-4</v>
+      </c>
+      <c r="AS4">
+        <v>-2.6920263361640621E-4</v>
+      </c>
+      <c r="AT4">
+        <v>-3.767037923179358E-4</v>
+      </c>
+      <c r="AU4">
+        <v>-4.8140030475743938E-4</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>0.5172165385330864</v>
-      </c>
-      <c r="B5" t="n">
-        <v>0.3122326242627769</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.2059499236072211</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.1397563701702305</v>
+    <row r="5" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>0.51721653853308636</v>
+      </c>
+      <c r="B5">
+        <v>0.31223262426277693</v>
+      </c>
+      <c r="C5">
+        <v>0.20592235630795569</v>
+      </c>
+      <c r="D5">
+        <v>0.1396866405585607</v>
+      </c>
+      <c r="E5">
+        <v>9.6453483361708045E-2</v>
+      </c>
+      <c r="F5">
+        <v>6.74641094192273E-2</v>
+      </c>
+      <c r="G5">
+        <v>4.7698188631393898E-2</v>
+      </c>
+      <c r="H5">
+        <v>3.4054938195755308E-2</v>
+      </c>
+      <c r="I5">
+        <v>2.45328433869667E-2</v>
+      </c>
+      <c r="J5">
+        <v>1.7807220217121111E-2</v>
+      </c>
+      <c r="K5">
+        <v>1.298884045013631E-2</v>
+      </c>
+      <c r="L5">
+        <v>9.4759373139130451E-3</v>
+      </c>
+      <c r="M5">
+        <v>6.8593630539439156E-3</v>
+      </c>
+      <c r="N5">
+        <v>4.8601661270584341E-3</v>
+      </c>
+      <c r="O5">
+        <v>3.287849204986698E-3</v>
+      </c>
+      <c r="P5">
+        <v>2.0121914742758039E-3</v>
+      </c>
+      <c r="Q5">
+        <v>9.4411930082898151E-4</v>
+      </c>
+      <c r="R5">
+        <v>2.267512742477385E-5</v>
+      </c>
+      <c r="S5">
+        <v>-7.9387773232626247E-4</v>
+      </c>
+      <c r="T5">
+        <v>-1.53413436011389E-3</v>
+      </c>
+      <c r="U5">
+        <v>-2.2177056370789928E-3</v>
+      </c>
+      <c r="V5">
+        <v>-2.8580620646014212E-3</v>
+      </c>
+      <c r="W5">
+        <v>-3.4644789971353439E-3</v>
+      </c>
+      <c r="X5">
+        <v>-4.0433669154028382E-3</v>
+      </c>
+      <c r="Y5">
+        <v>-4.5991807945984248E-3</v>
+      </c>
+      <c r="Z5">
+        <v>-5.1350414179249116E-3</v>
+      </c>
+      <c r="AA5">
+        <v>-5.6531596099589528E-3</v>
+      </c>
+      <c r="AB5">
+        <v>-6.1551256897885587E-3</v>
+      </c>
+      <c r="AC5">
+        <v>-6.6421068004095338E-3</v>
+      </c>
+      <c r="AD5">
+        <v>-7.1149813118494398E-3</v>
+      </c>
+      <c r="AE5">
+        <v>-7.5744302742756483E-3</v>
+      </c>
+      <c r="AF5">
+        <v>-8.0209995808934956E-3</v>
+      </c>
+      <c r="AG5">
+        <v>-8.4551421751506619E-3</v>
+      </c>
+      <c r="AH5">
+        <v>-8.8772466762934085E-3</v>
+      </c>
+      <c r="AI5">
+        <v>-9.2876567721457207E-3</v>
+      </c>
+      <c r="AJ5">
+        <v>-9.6866843434267793E-3</v>
+      </c>
+      <c r="AK5">
+        <v>-1.0074618338137799E-2</v>
+      </c>
+      <c r="AL5">
+        <v>-1.045173076889142E-2</v>
+      </c>
+      <c r="AM5">
+        <v>-1.0818280765807219E-2</v>
+      </c>
+      <c r="AN5">
+        <v>-1.1174517317584971E-2</v>
+      </c>
+      <c r="AO5">
+        <v>-1.152068112928473E-2</v>
+      </c>
+      <c r="AP5">
+        <v>-1.18570058865281E-2</v>
+      </c>
+      <c r="AQ5">
+        <v>-1.218371912171151E-2</v>
+      </c>
+      <c r="AR5">
+        <v>-1.250104281393364E-2</v>
+      </c>
+      <c r="AS5">
+        <v>-1.280919381118136E-2</v>
+      </c>
+      <c r="AT5">
+        <v>-1.310838413409908E-2</v>
+      </c>
+      <c r="AU5">
+        <v>-1.339882120105376E-2</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>-0.5865045841730135</v>
-      </c>
-      <c r="B6" t="n">
-        <v>-0.2698419586591628</v>
-      </c>
-      <c r="C6" t="n">
-        <v>-0.1508630949735744</v>
-      </c>
-      <c r="D6" t="n">
-        <v>-0.09313594532867908</v>
+    <row r="6" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>-0.58650458417301354</v>
+      </c>
+      <c r="B6">
+        <v>-0.26984195865916277</v>
+      </c>
+      <c r="C6">
+        <v>-0.15082038760236241</v>
+      </c>
+      <c r="D6">
+        <v>-9.3015538674428036E-2</v>
+      </c>
+      <c r="E6">
+        <v>-5.9982921987923717E-2</v>
+      </c>
+      <c r="F6">
+        <v>-3.9197224539456538E-2</v>
+      </c>
+      <c r="G6">
+        <v>-2.5508407250561829E-2</v>
+      </c>
+      <c r="H6">
+        <v>-1.632136675455672E-2</v>
+      </c>
+      <c r="I6">
+        <v>-1.011369621108868E-2</v>
+      </c>
+      <c r="J6">
+        <v>-5.9143044111425597E-3</v>
+      </c>
+      <c r="K6">
+        <v>-3.079256377982191E-3</v>
+      </c>
+      <c r="L6">
+        <v>-1.1742788046469109E-3</v>
+      </c>
+      <c r="M6">
+        <v>9.5699014507423345E-5</v>
+      </c>
+      <c r="N6">
+        <v>9.3187795312807105E-4</v>
+      </c>
+      <c r="O6">
+        <v>1.4717118646972911E-3</v>
+      </c>
+      <c r="P6">
+        <v>1.80921320382429E-3</v>
+      </c>
+      <c r="Q6">
+        <v>2.0087327108546721E-3</v>
+      </c>
+      <c r="R6">
+        <v>2.1143426369061992E-3</v>
+      </c>
+      <c r="S6">
+        <v>2.1562390382058889E-3</v>
+      </c>
+      <c r="T6">
+        <v>2.1551159681112292E-3</v>
+      </c>
+      <c r="U6">
+        <v>2.1251569602408101E-3</v>
+      </c>
+      <c r="V6">
+        <v>2.0760824781633951E-3</v>
+      </c>
+      <c r="W6">
+        <v>2.0145521513181891E-3</v>
+      </c>
+      <c r="X6">
+        <v>1.945125658769542E-3</v>
+      </c>
+      <c r="Y6">
+        <v>1.8709214993518971E-3</v>
+      </c>
+      <c r="Z6">
+        <v>1.7940688357169781E-3</v>
+      </c>
+      <c r="AA6">
+        <v>1.7160175343854619E-3</v>
+      </c>
+      <c r="AB6">
+        <v>1.637750983443339E-3</v>
+      </c>
+      <c r="AC6">
+        <v>1.559932224962884E-3</v>
+      </c>
+      <c r="AD6">
+        <v>1.483004329547724E-3</v>
+      </c>
+      <c r="AE6">
+        <v>1.4072593612858111E-3</v>
+      </c>
+      <c r="AF6">
+        <v>1.33288577468053E-3</v>
+      </c>
+      <c r="AG6">
+        <v>1.260000996561023E-3</v>
+      </c>
+      <c r="AH6">
+        <v>1.188673828386184E-3</v>
+      </c>
+      <c r="AI6">
+        <v>1.118939851873226E-3</v>
+      </c>
+      <c r="AJ6">
+        <v>1.050812024282886E-3</v>
+      </c>
+      <c r="AK6">
+        <v>9.842879655712791E-4</v>
+      </c>
+      <c r="AL6">
+        <v>9.1935496993007977E-4</v>
+      </c>
+      <c r="AM6">
+        <v>8.5599345156538913E-4</v>
+      </c>
+      <c r="AN6">
+        <v>7.9417931291883548E-4</v>
+      </c>
+      <c r="AO6">
+        <v>7.3388557114607129E-4</v>
+      </c>
+      <c r="AP6">
+        <v>6.7508347394664792E-4</v>
+      </c>
+      <c r="AQ6">
+        <v>6.1774326379325116E-4</v>
+      </c>
+      <c r="AR6">
+        <v>5.6183470004775435E-4</v>
+      </c>
+      <c r="AS6">
+        <v>5.0732741437632331E-4</v>
+      </c>
+      <c r="AT6">
+        <v>4.5419115139083032E-4</v>
+      </c>
+      <c r="AU6">
+        <v>4.0239593029176598E-4</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>0.1420548882957302</v>
-      </c>
-      <c r="B7" t="n">
+    <row r="7" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>0.14205488829573021</v>
+      </c>
+      <c r="B7">
         <v>0.1153461461066831</v>
       </c>
-      <c r="C7" t="n">
-        <v>0.08529872157759155</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.0594592677535084</v>
+      <c r="C7">
+        <v>8.5319149889219834E-2</v>
+      </c>
+      <c r="D7">
+        <v>5.9510837733194447E-2</v>
+      </c>
+      <c r="E7">
+        <v>4.0586297982192911E-2</v>
+      </c>
+      <c r="F7">
+        <v>2.7367168004410289E-2</v>
+      </c>
+      <c r="G7">
+        <v>1.830182419749269E-2</v>
+      </c>
+      <c r="H7">
+        <v>1.2139239349222879E-2</v>
+      </c>
+      <c r="I7">
+        <v>7.9747897609058638E-3</v>
+      </c>
+      <c r="J7">
+        <v>5.1774529523132048E-3</v>
+      </c>
+      <c r="K7">
+        <v>3.3129960612925508E-3</v>
+      </c>
+      <c r="L7">
+        <v>2.084219209986745E-3</v>
+      </c>
+      <c r="M7">
+        <v>1.288148646236076E-3</v>
+      </c>
+      <c r="N7">
+        <v>7.8627306255545884E-4</v>
+      </c>
+      <c r="O7">
+        <v>4.8409488193885378E-4</v>
+      </c>
+      <c r="P7">
+        <v>3.171495241136208E-4</v>
+      </c>
+      <c r="Q7">
+        <v>2.414642447088328E-4</v>
+      </c>
+      <c r="R7">
+        <v>2.270499443077536E-4</v>
+      </c>
+      <c r="S7">
+        <v>2.534615057646363E-4</v>
+      </c>
+      <c r="T7">
+        <v>3.0676841002386682E-4</v>
+      </c>
+      <c r="U7">
+        <v>3.774870553997271E-4</v>
+      </c>
+      <c r="V7">
+        <v>4.5916914768521258E-4</v>
+      </c>
+      <c r="W7">
+        <v>5.4743784308528627E-4</v>
+      </c>
+      <c r="X7">
+        <v>6.3932957747987176E-4</v>
+      </c>
+      <c r="Y7">
+        <v>7.3284464449798619E-4</v>
+      </c>
+      <c r="Z7">
+        <v>8.2664034762977058E-4</v>
+      </c>
+      <c r="AA7">
+        <v>9.1982153581223933E-4</v>
+      </c>
+      <c r="AB7">
+        <v>1.011797654294622E-3</v>
+      </c>
+      <c r="AC7">
+        <v>1.102185222603147E-3</v>
+      </c>
+      <c r="AD7">
+        <v>1.1907413319656641E-3</v>
+      </c>
+      <c r="AE7">
+        <v>1.277318318977655E-3</v>
+      </c>
+      <c r="AF7">
+        <v>1.3618328913244089E-3</v>
+      </c>
+      <c r="AG7">
+        <v>1.4442451128130159E-3</v>
+      </c>
+      <c r="AH7">
+        <v>1.5245441115012419E-3</v>
+      </c>
+      <c r="AI7">
+        <v>1.602738369934568E-3</v>
+      </c>
+      <c r="AJ7">
+        <v>1.678849136429838E-3</v>
+      </c>
+      <c r="AK7">
+        <v>1.752905960752306E-3</v>
+      </c>
+      <c r="AL7">
+        <v>1.824943674667143E-3</v>
+      </c>
+      <c r="AM7">
+        <v>1.8950003542937759E-3</v>
+      </c>
+      <c r="AN7">
+        <v>1.96311594895199E-3</v>
+      </c>
+      <c r="AO7">
+        <v>2.0293313618845159E-3</v>
+      </c>
+      <c r="AP7">
+        <v>2.0936878369552819E-3</v>
+      </c>
+      <c r="AQ7">
+        <v>2.156226552198515E-3</v>
+      </c>
+      <c r="AR7">
+        <v>2.2169883529436761E-3</v>
+      </c>
+      <c r="AS7">
+        <v>2.2760135789300479E-3</v>
+      </c>
+      <c r="AT7">
+        <v>2.3333419545307288E-3</v>
+      </c>
+      <c r="AU7">
+        <v>2.3890125212437268E-3</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>0.01645775632661547</v>
-      </c>
-      <c r="B8" t="n">
-        <v>0.01276567288038519</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.01166930571949581</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0.007731391047517077</v>
+    <row r="8" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>1.6457756326615471E-2</v>
+      </c>
+      <c r="B8">
+        <v>1.2765672880385191E-2</v>
+      </c>
+      <c r="C8">
+        <v>1.170185721879868E-2</v>
+      </c>
+      <c r="D8">
+        <v>7.8305686820930327E-3</v>
+      </c>
+      <c r="E8">
+        <v>4.7848643844352811E-3</v>
+      </c>
+      <c r="F8">
+        <v>2.8150028413795889E-3</v>
+      </c>
+      <c r="G8">
+        <v>1.5961638451636581E-3</v>
+      </c>
+      <c r="H8">
+        <v>8.3897562819399091E-4</v>
+      </c>
+      <c r="I8">
+        <v>3.5806540251671101E-4</v>
+      </c>
+      <c r="J8">
+        <v>4.3670225879274127E-5</v>
+      </c>
+      <c r="K8">
+        <v>-1.6852560763036509E-4</v>
+      </c>
+      <c r="L8">
+        <v>-3.1673726469685633E-4</v>
+      </c>
+      <c r="M8">
+        <v>-4.2415954130710842E-4</v>
+      </c>
+      <c r="N8">
+        <v>-5.0516988323556539E-4</v>
+      </c>
+      <c r="O8">
+        <v>-5.6884046335732336E-4</v>
+      </c>
+      <c r="P8">
+        <v>-6.2097580054272636E-4</v>
+      </c>
+      <c r="Q8">
+        <v>-6.6532783219464876E-4</v>
+      </c>
+      <c r="R8">
+        <v>-7.043392237024305E-4</v>
+      </c>
+      <c r="S8">
+        <v>-7.3960798300001318E-4</v>
+      </c>
+      <c r="T8">
+        <v>-7.7218287617573532E-4</v>
+      </c>
+      <c r="U8">
+        <v>-8.0275370272877135E-4</v>
+      </c>
+      <c r="V8">
+        <v>-8.3177499919596194E-4</v>
+      </c>
+      <c r="W8">
+        <v>-8.5954697538319727E-4</v>
+      </c>
+      <c r="X8">
+        <v>-8.8626867711193342E-4</v>
+      </c>
+      <c r="Y8">
+        <v>-9.120729731248023E-4</v>
+      </c>
+      <c r="Z8">
+        <v>-9.3704958565796615E-4</v>
+      </c>
+      <c r="AA8">
+        <v>-9.6126023181856892E-4</v>
+      </c>
+      <c r="AB8">
+        <v>-9.8474855242959699E-4</v>
+      </c>
+      <c r="AC8">
+        <v>-1.007546597313749E-3</v>
+      </c>
+      <c r="AD8">
+        <v>-1.029679038887892E-3</v>
+      </c>
+      <c r="AE8">
+        <v>-1.0511658910815509E-3</v>
+      </c>
+      <c r="AF8">
+        <v>-1.072024248562114E-3</v>
+      </c>
+      <c r="AG8">
+        <v>-1.092269387073512E-3</v>
+      </c>
+      <c r="AH8">
+        <v>-1.111915449836837E-3</v>
+      </c>
+      <c r="AI8">
+        <v>-1.1309758679501421E-3</v>
+      </c>
+      <c r="AJ8">
+        <v>-1.149463611616277E-3</v>
+      </c>
+      <c r="AK8">
+        <v>-1.1673913352074931E-3</v>
+      </c>
+      <c r="AL8">
+        <v>-1.1847714568281511E-3</v>
+      </c>
+      <c r="AM8">
+        <v>-1.2016161984199981E-3</v>
+      </c>
+      <c r="AN8">
+        <v>-1.217937602846407E-3</v>
+      </c>
+      <c r="AO8">
+        <v>-1.2337475382004359E-3</v>
+      </c>
+      <c r="AP8">
+        <v>-1.249057695588409E-3</v>
+      </c>
+      <c r="AQ8">
+        <v>-1.263879584096807E-3</v>
+      </c>
+      <c r="AR8">
+        <v>-1.2782245250488921E-3</v>
+      </c>
+      <c r="AS8">
+        <v>-1.2921036466888669E-3</v>
+      </c>
+      <c r="AT8">
+        <v>-1.305527879824337E-3</v>
+      </c>
+      <c r="AU8">
+        <v>-1.318507954617133E-3</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>0.2430084726874119</v>
-      </c>
-      <c r="B9" t="n">
+    <row r="9" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>0.24300847268741191</v>
+      </c>
+      <c r="B9">
         <v>0.1178582645688076</v>
       </c>
-      <c r="C9" t="n">
-        <v>0.06583112970842031</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0.03872334294077955</v>
+      <c r="C9">
+        <v>6.5809688014797196E-2</v>
+      </c>
+      <c r="D9">
+        <v>3.866982684998635E-2</v>
+      </c>
+      <c r="E9">
+        <v>2.304804663316733E-2</v>
+      </c>
+      <c r="F9">
+        <v>1.345771107617472E-2</v>
+      </c>
+      <c r="G9">
+        <v>7.3485711157198017E-3</v>
+      </c>
+      <c r="H9">
+        <v>3.3842553319904669E-3</v>
+      </c>
+      <c r="I9">
+        <v>7.9505178424905216E-4</v>
+      </c>
+      <c r="J9">
+        <v>-8.92022591241066E-4</v>
+      </c>
+      <c r="K9">
+        <v>-1.979606717141797E-3</v>
+      </c>
+      <c r="L9">
+        <v>-2.666060299183203E-3</v>
+      </c>
+      <c r="M9">
+        <v>-3.0832375923951802E-3</v>
+      </c>
+      <c r="N9">
+        <v>-3.319510376981851E-3</v>
+      </c>
+      <c r="O9">
+        <v>-3.4343955738627041E-3</v>
+      </c>
+      <c r="P9">
+        <v>-3.468090750598504E-3</v>
+      </c>
+      <c r="Q9">
+        <v>-3.4477880614012602E-3</v>
+      </c>
+      <c r="R9">
+        <v>-3.3918951576043599E-3</v>
+      </c>
+      <c r="S9">
+        <v>-3.312873707470632E-3</v>
+      </c>
+      <c r="T9">
+        <v>-3.2191554837615439E-3</v>
+      </c>
+      <c r="U9">
+        <v>-3.1164389325317129E-3</v>
+      </c>
+      <c r="V9">
+        <v>-3.0085679152150701E-3</v>
+      </c>
+      <c r="W9">
+        <v>-2.8981278722280419E-3</v>
+      </c>
+      <c r="X9">
+        <v>-2.786850524249217E-3</v>
+      </c>
+      <c r="Y9">
+        <v>-2.6758886878429241E-3</v>
+      </c>
+      <c r="Z9">
+        <v>-2.5660029078332482E-3</v>
+      </c>
+      <c r="AA9">
+        <v>-2.4576881902923322E-3</v>
+      </c>
+      <c r="AB9">
+        <v>-2.3512600381018979E-3</v>
+      </c>
+      <c r="AC9">
+        <v>-2.2469128337944178E-3</v>
+      </c>
+      <c r="AD9">
+        <v>-2.1447594349873048E-3</v>
+      </c>
+      <c r="AE9">
+        <v>-2.0448580085343751E-3</v>
+      </c>
+      <c r="AF9">
+        <v>-1.9472301997551301E-3</v>
+      </c>
+      <c r="AG9">
+        <v>-1.8518734210027519E-3</v>
+      </c>
+      <c r="AH9">
+        <v>-1.758769151600345E-3</v>
+      </c>
+      <c r="AI9">
+        <v>-1.6678885344173001E-3</v>
+      </c>
+      <c r="AJ9">
+        <v>-1.5791961418040029E-3</v>
+      </c>
+      <c r="AK9">
+        <v>-1.4926525031276139E-3</v>
+      </c>
+      <c r="AL9">
+        <v>-1.4082157955769151E-3</v>
+      </c>
+      <c r="AM9">
+        <v>-1.325842970400623E-3</v>
+      </c>
+      <c r="AN9">
+        <v>-1.2454904988674659E-3</v>
+      </c>
+      <c r="AO9">
+        <v>-1.1671148625685889E-3</v>
+      </c>
+      <c r="AP9">
+        <v>-1.0906728722462E-3</v>
+      </c>
+      <c r="AQ9">
+        <v>-1.016121871939392E-3</v>
+      </c>
+      <c r="AR9">
+        <v>-9.4341986668143249E-4</v>
+      </c>
+      <c r="AS9">
+        <v>-8.7252559946540752E-4</v>
+      </c>
+      <c r="AT9">
+        <v>-8.0339859470400597E-4</v>
+      </c>
+      <c r="AU9">
+        <v>-7.3599917973363768E-4</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>-0.02063914468007719</v>
-      </c>
-      <c r="B10" t="n">
-        <v>-0.005734588299979596</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.003746541026071212</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0.005713639856872968</v>
+    <row r="10" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>-2.0639144680077191E-2</v>
+      </c>
+      <c r="B10">
+        <v>-5.7345882999795964E-3</v>
+      </c>
+      <c r="C10">
+        <v>3.7304751362095892E-3</v>
+      </c>
+      <c r="D10">
+        <v>5.6687629527538072E-3</v>
+      </c>
+      <c r="E10">
+        <v>5.0205595738454494E-3</v>
+      </c>
+      <c r="F10">
+        <v>3.8121254495678139E-3</v>
+      </c>
+      <c r="G10">
+        <v>2.7144299535942951E-3</v>
+      </c>
+      <c r="H10">
+        <v>1.8830869501805789E-3</v>
+      </c>
+      <c r="I10">
+        <v>1.305431480060944E-3</v>
+      </c>
+      <c r="J10">
+        <v>9.2759749130692196E-4</v>
+      </c>
+      <c r="K10">
+        <v>6.958319988315028E-4</v>
+      </c>
+      <c r="L10">
+        <v>5.6706587834664439E-4</v>
+      </c>
+      <c r="M10">
+        <v>5.0948323925497415E-4</v>
+      </c>
+      <c r="N10">
+        <v>5.004339751498967E-4</v>
+      </c>
+      <c r="O10">
+        <v>5.2408765252828207E-4</v>
+      </c>
+      <c r="P10">
+        <v>5.6948724416121157E-4</v>
+      </c>
+      <c r="Q10">
+        <v>6.2908992167974771E-4</v>
+      </c>
+      <c r="R10">
+        <v>6.977204805571701E-4</v>
+      </c>
+      <c r="S10">
+        <v>7.7183682250632881E-4</v>
+      </c>
+      <c r="T10">
+        <v>8.4902017991203788E-4</v>
+      </c>
+      <c r="U10">
+        <v>9.2762339262116781E-4</v>
+      </c>
+      <c r="V10">
+        <v>1.006528978213451E-3</v>
+      </c>
+      <c r="W10">
+        <v>1.0849829752712121E-3</v>
+      </c>
+      <c r="X10">
+        <v>1.1624808993711999E-3</v>
+      </c>
+      <c r="Y10">
+        <v>1.2386894758462761E-3</v>
+      </c>
+      <c r="Z10">
+        <v>1.3133929145728259E-3</v>
+      </c>
+      <c r="AA10">
+        <v>1.386456016319872E-3</v>
+      </c>
+      <c r="AB10">
+        <v>1.4577988242715811E-3</v>
+      </c>
+      <c r="AC10">
+        <v>1.5273791976025211E-3</v>
+      </c>
+      <c r="AD10">
+        <v>1.595180823870622E-3</v>
+      </c>
+      <c r="AE10">
+        <v>1.6612049677335E-3</v>
+      </c>
+      <c r="AF10">
+        <v>1.725464788231367E-3</v>
+      </c>
+      <c r="AG10">
+        <v>1.787981423179296E-3</v>
+      </c>
+      <c r="AH10">
+        <v>1.8487812902439509E-3</v>
+      </c>
+      <c r="AI10">
+        <v>1.9078942264119691E-3</v>
+      </c>
+      <c r="AJ10">
+        <v>1.9653522056299528E-3</v>
+      </c>
+      <c r="AK10">
+        <v>2.02118845550235E-3</v>
+      </c>
+      <c r="AL10">
+        <v>2.0754368496270761E-3</v>
+      </c>
+      <c r="AM10">
+        <v>2.128131490462874E-3</v>
+      </c>
+      <c r="AN10">
+        <v>2.179306424000437E-3</v>
+      </c>
+      <c r="AO10">
+        <v>2.2289954456430091E-3</v>
+      </c>
+      <c r="AP10">
+        <v>2.2772319692650048E-3</v>
+      </c>
+      <c r="AQ10">
+        <v>2.324048940011569E-3</v>
+      </c>
+      <c r="AR10">
+        <v>2.36947877740555E-3</v>
+      </c>
+      <c r="AS10">
+        <v>2.4135533394422752E-3</v>
+      </c>
+      <c r="AT10">
+        <v>2.456303901199562E-3</v>
+      </c>
+      <c r="AU10">
+        <v>2.4977611434786069E-3</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="n">
+    <row r="11" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="A11">
         <v>-0.1152244858542527</v>
       </c>
-      <c r="B11" t="n">
-        <v>-0.02648942239727368</v>
-      </c>
-      <c r="C11" t="n">
-        <v>-0.006827336899072929</v>
-      </c>
-      <c r="D11" t="n">
-        <v>-0.001785870361561763</v>
+      <c r="B11">
+        <v>-2.6489422397273681E-2</v>
+      </c>
+      <c r="C11">
+        <v>-6.8312774893300411E-3</v>
+      </c>
+      <c r="D11">
+        <v>-1.797914070754078E-3</v>
+      </c>
+      <c r="E11">
+        <v>-5.9976334397458396E-4</v>
+      </c>
+      <c r="F11">
+        <v>-3.6706602075784329E-4</v>
+      </c>
+      <c r="G11">
+        <v>-3.495617047091887E-4</v>
+      </c>
+      <c r="H11">
+        <v>-3.615545015109313E-4</v>
+      </c>
+      <c r="I11">
+        <v>-3.6365030294087581E-4</v>
+      </c>
+      <c r="J11">
+        <v>-3.5197650911167528E-4</v>
+      </c>
+      <c r="K11">
+        <v>-3.2980366738040321E-4</v>
+      </c>
+      <c r="L11">
+        <v>-3.007996427410805E-4</v>
+      </c>
+      <c r="M11">
+        <v>-2.677544357513555E-4</v>
+      </c>
+      <c r="N11">
+        <v>-2.3257600237455551E-4</v>
+      </c>
+      <c r="O11">
+        <v>-1.9650942959827249E-4</v>
+      </c>
+      <c r="P11">
+        <v>-1.603419864339391E-4</v>
+      </c>
+      <c r="Q11">
+        <v>-1.24555817532954E-4</v>
+      </c>
+      <c r="R11">
+        <v>-8.9434031749933396E-5</v>
+      </c>
+      <c r="S11">
+        <v>-5.5132299264605752E-5</v>
+      </c>
+      <c r="T11">
+        <v>-2.1726359417776748E-5</v>
+      </c>
+      <c r="U11">
+        <v>1.075689104692044E-5</v>
+      </c>
+      <c r="V11">
+        <v>4.2319345316473203E-5</v>
+      </c>
+      <c r="W11">
+        <v>7.297896795498669E-5</v>
+      </c>
+      <c r="X11">
+        <v>1.0276189639389671E-4</v>
+      </c>
+      <c r="Y11">
+        <v>1.3169767120229021E-4</v>
+      </c>
+      <c r="Z11">
+        <v>1.5981646786008701E-4</v>
+      </c>
+      <c r="AA11">
+        <v>1.8714758602788261E-4</v>
+      </c>
+      <c r="AB11">
+        <v>2.13718710647427E-4</v>
+      </c>
+      <c r="AC11">
+        <v>2.3955563193946329E-4</v>
+      </c>
+      <c r="AD11">
+        <v>2.6468222578770149E-4</v>
+      </c>
+      <c r="AE11">
+        <v>2.8912057106525761E-4</v>
+      </c>
+      <c r="AF11">
+        <v>3.1289112913960839E-4</v>
+      </c>
+      <c r="AG11">
+        <v>3.360129419172315E-4</v>
+      </c>
+      <c r="AH11">
+        <v>3.5850382436703701E-4</v>
+      </c>
+      <c r="AI11">
+        <v>3.803805394857898E-4</v>
+      </c>
+      <c r="AJ11">
+        <v>4.0165895085294602E-4</v>
+      </c>
+      <c r="AK11">
+        <v>4.2235415201861959E-4</v>
+      </c>
+      <c r="AL11">
+        <v>4.4248057414293608E-4</v>
+      </c>
+      <c r="AM11">
+        <v>4.6205207433163602E-4</v>
+      </c>
+      <c r="AN11">
+        <v>4.8108200743139228E-4</v>
+      </c>
+      <c r="AO11">
+        <v>4.9958328401126855E-4</v>
+      </c>
+      <c r="AP11">
+        <v>5.1756841701941405E-4</v>
+      </c>
+      <c r="AQ11">
+        <v>5.3504955928273656E-4</v>
+      </c>
+      <c r="AR11">
+        <v>5.5203853367256212E-4</v>
+      </c>
+      <c r="AS11">
+        <v>5.6854685746630896E-4</v>
+      </c>
+      <c r="AT11">
+        <v>5.8458576212409006E-4</v>
+      </c>
+      <c r="AU11">
+        <v>6.0016620947631679E-4</v>
       </c>
     </row>
   </sheetData>
